--- a/Annotations/Old/BraveNewWorld.xlsx
+++ b/Annotations/Old/BraveNewWorld.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Old\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17832" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17832"/>
   </bookViews>
   <sheets>
     <sheet name="braveV2" sheetId="1" r:id="rId1"/>
@@ -1821,14 +1821,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P299"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F300" sqref="F300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14" style="2" customWidth="1"/>
     <col min="3" max="3" width="36.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="36.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="36.6640625" style="2" customWidth="1"/>
@@ -1890,7 +1891,7 @@
     <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.17758896966408644</v>
+        <v>0.29993863029806833</v>
       </c>
       <c r="B2" s="2">
         <v>208</v>
@@ -1914,7 +1915,7 @@
     <row r="3" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0387833672567135E-3</v>
+        <v>0.46343341147671302</v>
       </c>
       <c r="B3" s="2">
         <v>283</v>
@@ -1935,7 +1936,7 @@
     <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65012113901615332</v>
+        <v>0.43452408274435006</v>
       </c>
       <c r="B4" s="2">
         <v>87</v>
@@ -1956,7 +1957,7 @@
     <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42579875651791177</v>
+        <v>0.1838563084658732</v>
       </c>
       <c r="B5" s="2">
         <v>141</v>
@@ -1977,7 +1978,7 @@
     <row r="6" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91421288182418137</v>
+        <v>0.35675380182769723</v>
       </c>
       <c r="B6" s="2">
         <v>241</v>
@@ -1998,7 +1999,7 @@
     <row r="7" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9909923658727392</v>
+        <v>0.83797912001436314</v>
       </c>
       <c r="B7" s="2">
         <v>94</v>
@@ -2019,7 +2020,7 @@
     <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29230973955654649</v>
+        <v>0.97511980430455325</v>
       </c>
       <c r="B8" s="2">
         <v>115</v>
@@ -2043,7 +2044,7 @@
     <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7534683043431275</v>
+        <v>0.58640275453987667</v>
       </c>
       <c r="B9" s="2">
         <v>19</v>
@@ -2067,7 +2068,7 @@
     <row r="10" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69903523941128287</v>
+        <v>0.73541331906895635</v>
       </c>
       <c r="B10" s="2">
         <v>32</v>
@@ -2091,7 +2092,7 @@
     <row r="11" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89249454331217459</v>
+        <v>0.60671444313524081</v>
       </c>
       <c r="B11" s="2">
         <v>125</v>
@@ -2112,7 +2113,7 @@
     <row r="12" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58585839201517198</v>
+        <v>0.34118551143085152</v>
       </c>
       <c r="B12" s="2">
         <v>227</v>
@@ -2133,7 +2134,7 @@
     <row r="13" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48538773243954669</v>
+        <v>0.29338303585413261</v>
       </c>
       <c r="B13" s="2">
         <v>69</v>
@@ -2154,7 +2155,7 @@
     <row r="14" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7747080944518635</v>
+        <v>0.80193955151845908</v>
       </c>
       <c r="B14" s="2">
         <v>137</v>
@@ -2181,7 +2182,7 @@
     <row r="15" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8357345990806015E-2</v>
+        <v>0.24690826948691602</v>
       </c>
       <c r="B15" s="2">
         <v>168</v>
@@ -2202,7 +2203,7 @@
     <row r="16" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11559727699340605</v>
+        <v>0.45945807298198327</v>
       </c>
       <c r="B16" s="2">
         <v>11</v>
@@ -2223,7 +2224,7 @@
     <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29819184546215094</v>
+        <v>0.91821446068583956</v>
       </c>
       <c r="B17" s="2">
         <v>48</v>
@@ -2244,7 +2245,7 @@
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27696812492799949</v>
+        <v>0.15204942592763659</v>
       </c>
       <c r="B18" s="2">
         <v>178</v>
@@ -2265,7 +2266,7 @@
     <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87110192200233039</v>
+        <v>5.0054343713252791E-2</v>
       </c>
       <c r="B19" s="2">
         <v>62</v>
@@ -2289,7 +2290,7 @@
     <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17524488765163893</v>
+        <v>0.94070738909103857</v>
       </c>
       <c r="B20" s="2">
         <v>114</v>
@@ -2313,7 +2314,7 @@
     <row r="21" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39275944563080523</v>
+        <v>0.4905322211613784</v>
       </c>
       <c r="B21" s="2">
         <v>10</v>
@@ -2337,7 +2338,7 @@
     <row r="22" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9606595831949947E-2</v>
+        <v>0.87963770320351287</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
@@ -2358,7 +2359,7 @@
     <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25845295754765552</v>
+        <v>0.46397794055835606</v>
       </c>
       <c r="B23" s="2">
         <v>33</v>
@@ -2382,7 +2383,7 @@
     <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97685806738529357</v>
+        <v>0.32423494461485192</v>
       </c>
       <c r="B24" s="2">
         <v>88</v>
@@ -2403,7 +2404,7 @@
     <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44265501983164068</v>
+        <v>0.39142475459293624</v>
       </c>
       <c r="B25" s="2">
         <v>289</v>
@@ -2427,7 +2428,7 @@
     <row r="26" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76076118166706908</v>
+        <v>0.68315800092382317</v>
       </c>
       <c r="B26" s="2">
         <v>191</v>
@@ -2448,7 +2449,7 @@
     <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15470922037786305</v>
+        <v>8.1055309398589959E-3</v>
       </c>
       <c r="B27" s="2">
         <v>79</v>
@@ -2469,7 +2470,7 @@
     <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99944285173377978</v>
+        <v>0.93286100773494596</v>
       </c>
       <c r="B28" s="2">
         <v>155</v>
@@ -2490,7 +2491,7 @@
     <row r="29" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22610689411987639</v>
+        <v>0.99627970921481013</v>
       </c>
       <c r="B29" s="2">
         <v>40</v>
@@ -2514,7 +2515,7 @@
     <row r="30" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66915177282811078</v>
+        <v>0.95420309962411676</v>
       </c>
       <c r="B30" s="2">
         <v>24</v>
@@ -2538,7 +2539,7 @@
     <row r="31" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75918100110448461</v>
+        <v>0.60752318551769846</v>
       </c>
       <c r="B31" s="2">
         <v>229</v>
@@ -2559,7 +2560,7 @@
     <row r="32" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25689084634609283</v>
+        <v>0.56043080553407587</v>
       </c>
       <c r="B32" s="2">
         <v>44</v>
@@ -2580,7 +2581,7 @@
     <row r="33" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89460679502642937</v>
+        <v>0.29038712338059236</v>
       </c>
       <c r="B33" s="2">
         <v>276</v>
@@ -2604,7 +2605,7 @@
     <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32165909336207665</v>
+        <v>0.88382625299386919</v>
       </c>
       <c r="B34" s="2">
         <v>245</v>
@@ -2625,7 +2626,7 @@
     <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55631978407481075</v>
+        <v>0.41804821421377636</v>
       </c>
       <c r="B35" s="2">
         <v>156</v>
@@ -2649,7 +2650,7 @@
     <row r="36" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50529294334324548</v>
+        <v>0.82305425601098159</v>
       </c>
       <c r="B36" s="2">
         <v>56</v>
@@ -2670,7 +2671,7 @@
     <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12699830323865857</v>
+        <v>4.4236638719062471E-2</v>
       </c>
       <c r="B37" s="2">
         <v>34</v>
@@ -2694,7 +2695,7 @@
     <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42160546259438547</v>
+        <v>0.23001956219037223</v>
       </c>
       <c r="B38" s="2">
         <v>286</v>
@@ -2718,7 +2719,7 @@
     <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88432322725826829</v>
+        <v>0.57932927370786735</v>
       </c>
       <c r="B39" s="2">
         <v>270</v>
@@ -2742,7 +2743,7 @@
     <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9560073055079505E-2</v>
+        <v>0.29338997135944311</v>
       </c>
       <c r="B40" s="2">
         <v>78</v>
@@ -2763,7 +2764,7 @@
     <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36743597238429782</v>
+        <v>0.26535017427871876</v>
       </c>
       <c r="B41" s="2">
         <v>212</v>
@@ -2787,7 +2788,7 @@
     <row r="42" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83629777791296378</v>
+        <v>0.80857884049643225</v>
       </c>
       <c r="B42" s="2">
         <v>193</v>
@@ -2808,7 +2809,7 @@
     <row r="43" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48170070007777444</v>
+        <v>0.28086603257555365</v>
       </c>
       <c r="B43" s="2">
         <v>244</v>
@@ -2829,7 +2830,7 @@
     <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67974803309907883</v>
+        <v>0.37809451958413343</v>
       </c>
       <c r="B44" s="2">
         <v>133</v>
@@ -2850,7 +2851,7 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52139742193124705</v>
+        <v>0.395451805117358</v>
       </c>
       <c r="B45" s="2">
         <v>172</v>
@@ -2874,7 +2875,7 @@
     <row r="46" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99277581092745115</v>
+        <v>0.80450942961306704</v>
       </c>
       <c r="B46" s="2">
         <v>54</v>
@@ -2895,7 +2896,7 @@
     <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23788345815237333</v>
+        <v>0.39284073903310457</v>
       </c>
       <c r="B47" s="2">
         <v>220</v>
@@ -2916,7 +2917,7 @@
     <row r="48" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84398947035849681</v>
+        <v>0.67751831108516858</v>
       </c>
       <c r="B48" s="2">
         <v>200</v>
@@ -2937,7 +2938,7 @@
     <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10934492100902793</v>
+        <v>0.83372548538967972</v>
       </c>
       <c r="B49" s="2">
         <v>239</v>
@@ -2958,7 +2959,7 @@
     <row r="50" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44351547776301892</v>
+        <v>0.12708139264752982</v>
       </c>
       <c r="B50" s="2">
         <v>18</v>
@@ -2979,7 +2980,7 @@
     <row r="51" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74410467437917593</v>
+        <v>4.1266846851496508E-2</v>
       </c>
       <c r="B51" s="2">
         <v>122</v>
@@ -3000,7 +3001,7 @@
     <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6400730879427559E-2</v>
+        <v>0.51067262098629995</v>
       </c>
       <c r="B52" s="2">
         <v>129</v>
@@ -3021,7 +3022,7 @@
     <row r="53" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98782684802220955</v>
+        <v>0.49962271475998266</v>
       </c>
       <c r="B53" s="2">
         <v>260</v>
@@ -3042,7 +3043,7 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48856729419028577</v>
+        <v>0.15376269340972515</v>
       </c>
       <c r="B54" s="2">
         <v>76</v>
@@ -3063,7 +3064,7 @@
     <row r="55" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96322130841192599</v>
+        <v>0.43457909638013981</v>
       </c>
       <c r="B55" s="2">
         <v>47</v>
@@ -3084,7 +3085,7 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1541390928488231E-2</v>
+        <v>4.5766622392134915E-3</v>
       </c>
       <c r="B56" s="2">
         <v>116</v>
@@ -3105,7 +3106,7 @@
     <row r="57" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15811745064231897</v>
+        <v>0.20936230779284726</v>
       </c>
       <c r="B57" s="2">
         <v>37</v>
@@ -3126,7 +3127,7 @@
     <row r="58" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54954580185468416</v>
+        <v>0.39499789134950158</v>
       </c>
       <c r="B58" s="2">
         <v>110</v>
@@ -3147,7 +3148,7 @@
     <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9648848929326761</v>
+        <v>0.85594973558024678</v>
       </c>
       <c r="B59" s="2">
         <v>154</v>
@@ -3171,7 +3172,7 @@
     <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24624536649541384</v>
+        <v>0.83493639716167289</v>
       </c>
       <c r="B60" s="2">
         <v>285</v>
@@ -3192,7 +3193,7 @@
     <row r="61" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49730936925163904</v>
+        <v>0.61490951865555277</v>
       </c>
       <c r="B61" s="2">
         <v>99</v>
@@ -3216,7 +3217,7 @@
     <row r="62" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20167861818529387</v>
+        <v>0.98388642479001265</v>
       </c>
       <c r="B62" s="2">
         <v>228</v>
@@ -3240,7 +3241,7 @@
     <row r="63" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12075335589765113</v>
+        <v>0.93363918471382057</v>
       </c>
       <c r="B63" s="2">
         <v>213</v>
@@ -3264,7 +3265,7 @@
     <row r="64" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0933810313357881E-2</v>
+        <v>0.39672395703053287</v>
       </c>
       <c r="B64" s="2">
         <v>145</v>
@@ -3285,7 +3286,7 @@
     <row r="65" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66601868906281958</v>
+        <v>0.80304345265756372</v>
       </c>
       <c r="B65" s="2">
         <v>135</v>
@@ -3306,7 +3307,7 @@
     <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.65061287418864888</v>
+        <v>0.16471356777854873</v>
       </c>
       <c r="B66" s="2">
         <v>63</v>
@@ -3333,7 +3334,7 @@
     <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85576684307168083</v>
+        <v>0.90687062433839338</v>
       </c>
       <c r="B67" s="2">
         <v>274</v>
@@ -3354,7 +3355,7 @@
     <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71663087167940698</v>
+        <v>0.99838002686734562</v>
       </c>
       <c r="B68" s="2">
         <v>242</v>
@@ -3375,7 +3376,7 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10658514923397655</v>
+        <v>0.11191994848544973</v>
       </c>
       <c r="B69" s="2">
         <v>28</v>
@@ -3396,7 +3397,7 @@
     <row r="70" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77294713615219413</v>
+        <v>0.71973810221907231</v>
       </c>
       <c r="B70" s="2">
         <v>197</v>
@@ -3417,7 +3418,7 @@
     <row r="71" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10458186302805916</v>
+        <v>0.47523525330630378</v>
       </c>
       <c r="B71" s="2">
         <v>233</v>
@@ -3438,7 +3439,7 @@
     <row r="72" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53267703204379235</v>
+        <v>0.12974320940824624</v>
       </c>
       <c r="B72" s="2">
         <v>25</v>
@@ -3462,7 +3463,7 @@
     <row r="73" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.958273034508955E-2</v>
+        <v>0.27234865065396441</v>
       </c>
       <c r="B73" s="2">
         <v>82</v>
@@ -3486,7 +3487,7 @@
     <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46311187251535313</v>
+        <v>0.87444579693638769</v>
       </c>
       <c r="B74" s="2">
         <v>22</v>
@@ -3507,7 +3508,7 @@
     <row r="75" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12644282611374302</v>
+        <v>0.24508728811822333</v>
       </c>
       <c r="B75" s="2">
         <v>4</v>
@@ -3528,7 +3529,7 @@
     <row r="76" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7578703189828957</v>
+        <v>0.42807742428129059</v>
       </c>
       <c r="B76" s="2">
         <v>198</v>
@@ -3552,7 +3553,7 @@
     <row r="77" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2686267284044499E-2</v>
+        <v>0.38358631306241175</v>
       </c>
       <c r="B77" s="2">
         <v>187</v>
@@ -3573,7 +3574,7 @@
     <row r="78" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70840218148861456</v>
+        <v>0.42449875599571629</v>
       </c>
       <c r="B78" s="2">
         <v>93</v>
@@ -3594,7 +3595,7 @@
     <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83925131243265794</v>
+        <v>0.6466914790697027</v>
       </c>
       <c r="B79" s="2">
         <v>139</v>
@@ -3615,7 +3616,7 @@
     <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37250225508960622</v>
+        <v>0.22162108357144217</v>
       </c>
       <c r="B80" s="2">
         <v>257</v>
@@ -3639,7 +3640,7 @@
     <row r="81" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7128657429366458E-2</v>
+        <v>0.78076720291455426</v>
       </c>
       <c r="B81" s="2">
         <v>158</v>
@@ -3660,7 +3661,7 @@
     <row r="82" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29751169218862872</v>
+        <v>0.76939974923417065</v>
       </c>
       <c r="B82" s="2">
         <v>60</v>
@@ -3681,7 +3682,7 @@
     <row r="83" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1460272262653399E-2</v>
+        <v>0.58835700990786299</v>
       </c>
       <c r="B83" s="2">
         <v>41</v>
@@ -3702,7 +3703,7 @@
     <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66168828459979656</v>
+        <v>0.89379019993216691</v>
       </c>
       <c r="B84" s="2">
         <v>131</v>
@@ -3723,7 +3724,7 @@
     <row r="85" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83043298393487885</v>
+        <v>0.30670078209843477</v>
       </c>
       <c r="B85" s="2">
         <v>174</v>
@@ -3744,7 +3745,7 @@
     <row r="86" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6808372432554246E-2</v>
+        <v>0.87921573053460633</v>
       </c>
       <c r="B86" s="2">
         <v>205</v>
@@ -3768,7 +3769,7 @@
     <row r="87" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0788381549188282E-3</v>
+        <v>0.71969156976410864</v>
       </c>
       <c r="B87" s="2">
         <v>50</v>
@@ -3792,7 +3793,7 @@
     <row r="88" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92759050789112063</v>
+        <v>0.50082733985974626</v>
       </c>
       <c r="B88" s="2">
         <v>30</v>
@@ -3813,7 +3814,7 @@
     <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3976573449692875E-2</v>
+        <v>8.1703824927375934E-2</v>
       </c>
       <c r="B89" s="2">
         <v>253</v>
@@ -3834,7 +3835,7 @@
     <row r="90" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1549778625703313</v>
+        <v>0.72350951900067084</v>
       </c>
       <c r="B90" s="2">
         <v>232</v>
@@ -3855,7 +3856,7 @@
     <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62864275378309953</v>
+        <v>0.73095845821376226</v>
       </c>
       <c r="B91" s="2">
         <v>117</v>
@@ -3876,7 +3877,7 @@
     <row r="92" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78644274203775399</v>
+        <v>0.89188086017318324</v>
       </c>
       <c r="B92" s="2">
         <v>160</v>
@@ -3897,7 +3898,7 @@
     <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93296627976814139</v>
+        <v>0.10277411632735522</v>
       </c>
       <c r="B93" s="2">
         <v>176</v>
@@ -3918,7 +3919,7 @@
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21416878082840263</v>
+        <v>0.50119167393144981</v>
       </c>
       <c r="B94" s="2">
         <v>27</v>
@@ -3939,7 +3940,7 @@
     <row r="95" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69731060989055382</v>
+        <v>0.11830517811807773</v>
       </c>
       <c r="B95" s="2">
         <v>214</v>
@@ -3963,7 +3964,7 @@
     <row r="96" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33754385479452265</v>
+        <v>0.50187574094400988</v>
       </c>
       <c r="B96" s="2">
         <v>163</v>
@@ -3984,7 +3985,7 @@
     <row r="97" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34818379342892236</v>
+        <v>2.4479585000644843E-2</v>
       </c>
       <c r="B97" s="2">
         <v>288</v>
@@ -4005,7 +4006,7 @@
     <row r="98" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69348580418093242</v>
+        <v>0.22458093685176728</v>
       </c>
       <c r="B98" s="2">
         <v>159</v>
@@ -4026,7 +4027,7 @@
     <row r="99" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73948332508400538</v>
+        <v>0.31083591303338232</v>
       </c>
       <c r="B99" s="2">
         <v>256</v>
@@ -4047,7 +4048,7 @@
     <row r="100" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18120417056006188</v>
+        <v>0.4448455368237525</v>
       </c>
       <c r="B100" s="2">
         <v>147</v>
@@ -4068,7 +4069,7 @@
     <row r="101" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66546134981272531</v>
+        <v>0.61979004987328168</v>
       </c>
       <c r="B101" s="2">
         <v>143</v>
@@ -4089,7 +4090,7 @@
     <row r="102" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10782857276514413</v>
+        <v>0.97525155677093134</v>
       </c>
       <c r="B102" s="2">
         <v>291</v>
@@ -4113,7 +4114,7 @@
     <row r="103" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58247650892435354</v>
+        <v>0.69332869646964423</v>
       </c>
       <c r="B103" s="2">
         <v>52</v>
@@ -4134,7 +4135,7 @@
     <row r="104" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14314647487430909</v>
+        <v>0.54855502397470413</v>
       </c>
       <c r="B104" s="2">
         <v>250</v>
@@ -4155,7 +4156,7 @@
     <row r="105" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36781377723996422</v>
+        <v>0.9078292870071899</v>
       </c>
       <c r="B105" s="2">
         <v>144</v>
@@ -4179,7 +4180,7 @@
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27608934407537622</v>
+        <v>8.9152500570426341E-3</v>
       </c>
       <c r="B106" s="2">
         <v>224</v>
@@ -4200,7 +4201,7 @@
     <row r="107" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86708075686070596</v>
+        <v>0.55373016463635782</v>
       </c>
       <c r="B107" s="2">
         <v>196</v>
@@ -4221,7 +4222,7 @@
     <row r="108" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46856335297668461</v>
+        <v>0.7776348431544825</v>
       </c>
       <c r="B108" s="2">
         <v>273</v>
@@ -4242,7 +4243,7 @@
     <row r="109" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16478091182060939</v>
+        <v>0.31951883038962725</v>
       </c>
       <c r="B109" s="2">
         <v>98</v>
@@ -4266,7 +4267,7 @@
     <row r="110" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94719983811936115</v>
+        <v>0.39681594595502268</v>
       </c>
       <c r="B110" s="2">
         <v>204</v>
@@ -4290,7 +4291,7 @@
     <row r="111" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88930842124507381</v>
+        <v>0.24855988275715646</v>
       </c>
       <c r="B111" s="2">
         <v>189</v>
@@ -4311,7 +4312,7 @@
     <row r="112" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19795963078050405</v>
+        <v>0.35623007925988615</v>
       </c>
       <c r="B112" s="2">
         <v>240</v>
@@ -4332,7 +4333,7 @@
     <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5464613988518199E-2</v>
+        <v>0.35491919541779748</v>
       </c>
       <c r="B113" s="2">
         <v>280</v>
@@ -4356,7 +4357,7 @@
     <row r="114" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49906231892601749</v>
+        <v>0.88761945635477502</v>
       </c>
       <c r="B114" s="2">
         <v>230</v>
@@ -4377,7 +4378,7 @@
     <row r="115" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62741295613688886</v>
+        <v>3.4240858323588363E-2</v>
       </c>
       <c r="B115" s="2">
         <v>237</v>
@@ -4398,7 +4399,7 @@
     <row r="116" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25400310925682423</v>
+        <v>0.59366975708887948</v>
       </c>
       <c r="B116" s="2">
         <v>169</v>
@@ -4422,7 +4423,7 @@
     <row r="117" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15421738416548425</v>
+        <v>0.6569412211035619</v>
       </c>
       <c r="B117" s="2">
         <v>238</v>
@@ -4443,7 +4444,7 @@
     <row r="118" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78265135212559778</v>
+        <v>0.18735415646689457</v>
       </c>
       <c r="B118" s="2">
         <v>23</v>
@@ -4464,7 +4465,7 @@
     <row r="119" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64405337979653976</v>
+        <v>0.46031073298879177</v>
       </c>
       <c r="B119" s="2">
         <v>263</v>
@@ -4491,7 +4492,7 @@
     <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1255790852676073E-2</v>
+        <v>0.31018260917592366</v>
       </c>
       <c r="B120" s="2">
         <v>66</v>
@@ -4515,7 +4516,7 @@
     <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93024775922305092</v>
+        <v>0.54010674841151307</v>
       </c>
       <c r="B121" s="2">
         <v>215</v>
@@ -4539,7 +4540,7 @@
     <row r="122" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41011188821022848</v>
+        <v>7.2026474045084665E-2</v>
       </c>
       <c r="B122" s="2">
         <v>95</v>
@@ -4566,7 +4567,7 @@
     <row r="123" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95673946173884949</v>
+        <v>0.95271031526652783</v>
       </c>
       <c r="B123" s="2">
         <v>265</v>
@@ -4590,7 +4591,7 @@
     <row r="124" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11567006361574084</v>
+        <v>0.53335348502980329</v>
       </c>
       <c r="B124" s="2">
         <v>199</v>
@@ -4614,7 +4615,7 @@
     <row r="125" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47565040173041839</v>
+        <v>0.27449918673673623</v>
       </c>
       <c r="B125" s="2">
         <v>185</v>
@@ -4635,7 +4636,7 @@
     <row r="126" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5467398237770742</v>
+        <v>0.46148968334168472</v>
       </c>
       <c r="B126" s="2">
         <v>67</v>
@@ -4656,7 +4657,7 @@
     <row r="127" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50471321519438095</v>
+        <v>0.83865827678499305</v>
       </c>
       <c r="B127" s="2">
         <v>261</v>
@@ -4677,7 +4678,7 @@
     <row r="128" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71176389097676152</v>
+        <v>0.84166378982976431</v>
       </c>
       <c r="B128" s="2">
         <v>267</v>
@@ -4704,7 +4705,7 @@
     <row r="129" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.438215328210207E-3</v>
+        <v>0.45002913386087373</v>
       </c>
       <c r="B129" s="2">
         <v>221</v>
@@ -4728,7 +4729,7 @@
     <row r="130" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.41146297251352737</v>
+        <v>0.97179168635336977</v>
       </c>
       <c r="B130" s="2">
         <v>203</v>
@@ -4752,7 +4753,7 @@
     <row r="131" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72114491025866323</v>
+        <v>2.3764363248920284E-2</v>
       </c>
       <c r="B131" s="2">
         <v>84</v>
@@ -4770,7 +4771,7 @@
     <row r="132" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34617913808832645</v>
+        <v>5.8290082970212653E-2</v>
       </c>
       <c r="B132" s="2">
         <v>113</v>
@@ -4797,7 +4798,7 @@
     <row r="133" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78190242007659183</v>
+        <v>0.35740037651186507</v>
       </c>
       <c r="B133" s="2">
         <v>179</v>
@@ -4818,7 +4819,7 @@
     <row r="134" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57481838856213796</v>
+        <v>0.42940817919269259</v>
       </c>
       <c r="B134" s="2">
         <v>96</v>
@@ -4842,7 +4843,7 @@
     <row r="135" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42613323220182386</v>
+        <v>0.70319614137404551</v>
       </c>
       <c r="B135" s="2">
         <v>223</v>
@@ -4863,7 +4864,7 @@
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36740884888569558</v>
+        <v>0.80019913013282851</v>
       </c>
       <c r="B136" s="2">
         <v>297</v>
@@ -4887,7 +4888,7 @@
     <row r="137" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73858881606878657</v>
+        <v>0.29798310433321029</v>
       </c>
       <c r="B137" s="2">
         <v>53</v>
@@ -4911,7 +4912,7 @@
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20577881179486757</v>
+        <v>0.93451992069566159</v>
       </c>
       <c r="B138" s="2">
         <v>74</v>
@@ -4932,7 +4933,7 @@
     <row r="139" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.7035897002880716E-2</v>
+        <v>0.7618887156963523</v>
       </c>
       <c r="B139" s="2">
         <v>42</v>
@@ -4953,7 +4954,7 @@
     <row r="140" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61103020557395638</v>
+        <v>0.19925523407026424</v>
       </c>
       <c r="B140" s="2">
         <v>246</v>
@@ -4974,7 +4975,7 @@
     <row r="141" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49814669216687313</v>
+        <v>0.11811164314585387</v>
       </c>
       <c r="B141" s="2">
         <v>130</v>
@@ -4995,7 +4996,7 @@
     <row r="142" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78150506195924652</v>
+        <v>0.1999436356708818</v>
       </c>
       <c r="B142" s="2">
         <v>134</v>
@@ -5016,7 +5017,7 @@
     <row r="143" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86249247544684526</v>
+        <v>0.41698549493725523</v>
       </c>
       <c r="B143" s="2">
         <v>272</v>
@@ -5040,7 +5041,7 @@
     <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33426534816188347</v>
+        <v>0.47426833099318333</v>
       </c>
       <c r="B144" s="2">
         <v>243</v>
@@ -5061,7 +5062,7 @@
     <row r="145" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.2088147797243383E-2</v>
+        <v>0.83181866029321294</v>
       </c>
       <c r="B145" s="2">
         <v>81</v>
@@ -5082,7 +5083,7 @@
     <row r="146" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8125865474741856E-3</v>
+        <v>0.89151678707575155</v>
       </c>
       <c r="B146" s="2">
         <v>146</v>
@@ -5103,7 +5104,7 @@
     <row r="147" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37482373947108838</v>
+        <v>0.4864486022695832</v>
       </c>
       <c r="B147" s="2">
         <v>157</v>
@@ -5124,7 +5125,7 @@
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62679985496121549</v>
+        <v>0.20752827191304501</v>
       </c>
       <c r="B148" s="2">
         <v>75</v>
@@ -5148,7 +5149,7 @@
     <row r="149" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15065072256359358</v>
+        <v>0.43430455873607643</v>
       </c>
       <c r="B149" s="2">
         <v>190</v>
@@ -5169,7 +5170,7 @@
     <row r="150" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57469637470796042</v>
+        <v>0.24428331263326764</v>
       </c>
       <c r="B150" s="2">
         <v>188</v>
@@ -5190,7 +5191,7 @@
     <row r="151" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4196334187022708E-2</v>
+        <v>0.84720042136060569</v>
       </c>
       <c r="B151" s="2">
         <v>65</v>
@@ -5214,7 +5215,7 @@
     <row r="152" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9.9626550940466796E-2</v>
+        <v>0.47207103188270927</v>
       </c>
       <c r="B152" s="2">
         <v>138</v>
@@ -5238,7 +5239,7 @@
     <row r="153" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56452867471870605</v>
+        <v>0.63402559963829952</v>
       </c>
       <c r="B153" s="2">
         <v>255</v>
@@ -5259,7 +5260,7 @@
     <row r="154" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.426614370114256E-2</v>
+        <v>0.88252799777253943</v>
       </c>
       <c r="B154" s="2">
         <v>284</v>
@@ -5283,7 +5284,7 @@
     <row r="155" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.2855011241544356E-2</v>
+        <v>7.0194408941411712E-2</v>
       </c>
       <c r="B155" s="2">
         <v>269</v>
@@ -5304,7 +5305,7 @@
     <row r="156" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.4987756525546234E-2</v>
+        <v>0.79332243327854024</v>
       </c>
       <c r="B156" s="2">
         <v>58</v>
@@ -5325,7 +5326,7 @@
     <row r="157" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27296874547248762</v>
+        <v>0.33034649795159976</v>
       </c>
       <c r="B157" s="2">
         <v>46</v>
@@ -5349,7 +5350,7 @@
     <row r="158" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30408717098478533</v>
+        <v>0.7951517886507361</v>
       </c>
       <c r="B158" s="2">
         <v>104</v>
@@ -5370,7 +5371,7 @@
     <row r="159" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7684412843495545</v>
+        <v>0.10390629906572701</v>
       </c>
       <c r="B159" s="2">
         <v>132</v>
@@ -5394,7 +5395,7 @@
     <row r="160" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18540388602800006</v>
+        <v>0.60978566389108535</v>
       </c>
       <c r="B160" s="2">
         <v>234</v>
@@ -5415,7 +5416,7 @@
     <row r="161" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3958834647364956</v>
+        <v>0.26675547622515461</v>
       </c>
       <c r="B161" s="2">
         <v>252</v>
@@ -5436,7 +5437,7 @@
     <row r="162" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15357397490130276</v>
+        <v>0.89973877708790095</v>
       </c>
       <c r="B162" s="2">
         <v>162</v>
@@ -5460,7 +5461,7 @@
     <row r="163" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0105047258460287E-2</v>
+        <v>2.2354309274017825E-2</v>
       </c>
       <c r="B163" s="2">
         <v>271</v>
@@ -5481,7 +5482,7 @@
     <row r="164" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70729868719573763</v>
+        <v>0.87631488723307915</v>
       </c>
       <c r="B164" s="2">
         <v>35</v>
@@ -5502,7 +5503,7 @@
     <row r="165" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58314946972301462</v>
+        <v>0.26583751765446706</v>
       </c>
       <c r="B165" s="2">
         <v>216</v>
@@ -5526,7 +5527,7 @@
     <row r="166" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45161816828835344</v>
+        <v>0.67017471590096345</v>
       </c>
       <c r="B166" s="2">
         <v>182</v>
@@ -5547,7 +5548,7 @@
     <row r="167" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68797282527765102</v>
+        <v>0.89467860413377653</v>
       </c>
       <c r="B167" s="2">
         <v>202</v>
@@ -5571,7 +5572,7 @@
     <row r="168" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.3602347595419348E-2</v>
+        <v>0.89270616012902038</v>
       </c>
       <c r="B168" s="2">
         <v>258</v>
@@ -5592,7 +5593,7 @@
     <row r="169" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78067894456953124</v>
+        <v>0.74160206456154143</v>
       </c>
       <c r="B169" s="2">
         <v>118</v>
@@ -5613,7 +5614,7 @@
     <row r="170" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38506141272574512</v>
+        <v>0.71503196230104638</v>
       </c>
       <c r="B170" s="2">
         <v>268</v>
@@ -5640,7 +5641,7 @@
     <row r="171" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36071557090683082</v>
+        <v>0.93486082579921403</v>
       </c>
       <c r="B171" s="2">
         <v>2</v>
@@ -5661,7 +5662,7 @@
     <row r="172" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72267282695699409</v>
+        <v>0.15666712354688395</v>
       </c>
       <c r="B172" s="2">
         <v>259</v>
@@ -5685,7 +5686,7 @@
     <row r="173" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72430641748694069</v>
+        <v>0.17846370164900149</v>
       </c>
       <c r="B173" s="2">
         <v>57</v>
@@ -5706,7 +5707,7 @@
     <row r="174" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69105840640312677</v>
+        <v>0.16103981250015165</v>
       </c>
       <c r="B174" s="2">
         <v>126</v>
@@ -5727,7 +5728,7 @@
     <row r="175" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40411678250381067</v>
+        <v>0.29731743066086447</v>
       </c>
       <c r="B175" s="2">
         <v>251</v>
@@ -5751,7 +5752,7 @@
     <row r="176" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5546000473648639</v>
+        <v>0.5009425395553081</v>
       </c>
       <c r="B176" s="2">
         <v>248</v>
@@ -5775,7 +5776,7 @@
     <row r="177" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42732834679711762</v>
+        <v>0.51036416733146028</v>
       </c>
       <c r="B177" s="2">
         <v>38</v>
@@ -5799,7 +5800,7 @@
     <row r="178" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89502206362937509</v>
+        <v>0.73107379986565613</v>
       </c>
       <c r="B178" s="2">
         <v>151</v>
@@ -5820,7 +5821,7 @@
     <row r="179" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51458348795935305</v>
+        <v>0.9611917537984852</v>
       </c>
       <c r="B179" s="2">
         <v>210</v>
@@ -5841,7 +5842,7 @@
     <row r="180" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85284324762924191</v>
+        <v>0.42971278514361688</v>
       </c>
       <c r="B180" s="2">
         <v>107</v>
@@ -5865,7 +5866,7 @@
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.3847518468971862E-2</v>
+        <v>0.73073634791642539</v>
       </c>
       <c r="B181" s="2">
         <v>111</v>
@@ -5886,7 +5887,7 @@
     <row r="182" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12909062917424874</v>
+        <v>0.77268397241011755</v>
       </c>
       <c r="B182" s="2">
         <v>21</v>
@@ -5907,7 +5908,7 @@
     <row r="183" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6554009213525277</v>
+        <v>0.86208265182279387</v>
       </c>
       <c r="B183" s="2">
         <v>12</v>
@@ -5928,7 +5929,7 @@
     <row r="184" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89588798873251285</v>
+        <v>4.2583557304938791E-2</v>
       </c>
       <c r="B184" s="2">
         <v>51</v>
@@ -5949,7 +5950,7 @@
     <row r="185" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38686722806273055</v>
+        <v>0.49721327082078182</v>
       </c>
       <c r="B185" s="2">
         <v>181</v>
@@ -5970,7 +5971,7 @@
     <row r="186" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64261381844960186</v>
+        <v>0.79498241549062998</v>
       </c>
       <c r="B186" s="2">
         <v>123</v>
@@ -5991,7 +5992,7 @@
     <row r="187" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23077148587035201</v>
+        <v>0.9381657439676343</v>
       </c>
       <c r="B187" s="2">
         <v>90</v>
@@ -6012,7 +6013,7 @@
     <row r="188" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22163542170918649</v>
+        <v>0.19018894194132041</v>
       </c>
       <c r="B188" s="2">
         <v>106</v>
@@ -6036,7 +6037,7 @@
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27533558483486942</v>
+        <v>1.0581114655050072E-2</v>
       </c>
       <c r="B189" s="2">
         <v>49</v>
@@ -6057,7 +6058,7 @@
     <row r="190" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36021717590293212</v>
+        <v>0.31028514003396268</v>
       </c>
       <c r="B190" s="2">
         <v>211</v>
@@ -6078,7 +6079,7 @@
     <row r="191" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2033505222524844</v>
+        <v>0.33836550138697874</v>
       </c>
       <c r="B191" s="2">
         <v>80</v>
@@ -6099,7 +6100,7 @@
     <row r="192" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63415712819084502</v>
+        <v>0.76002305012828475</v>
       </c>
       <c r="B192" s="2">
         <v>59</v>
@@ -6123,7 +6124,7 @@
     <row r="193" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.456901609641437</v>
+        <v>0.86641856980393128</v>
       </c>
       <c r="B193" s="2">
         <v>26</v>
@@ -6144,7 +6145,7 @@
     <row r="194" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>0.539851050269474</v>
+        <v>0.42521214493615178</v>
       </c>
       <c r="B194" s="2">
         <v>183</v>
@@ -6165,7 +6166,7 @@
     <row r="195" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90264541017601807</v>
+        <v>0.12648697385452212</v>
       </c>
       <c r="B195" s="2">
         <v>103</v>
@@ -6186,7 +6187,7 @@
     <row r="196" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0914403964168899E-2</v>
+        <v>0.6407270096861285</v>
       </c>
       <c r="B196" s="2">
         <v>77</v>
@@ -6207,7 +6208,7 @@
     <row r="197" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5621970291007647E-3</v>
+        <v>0.71353532725597957</v>
       </c>
       <c r="B197" s="2">
         <v>264</v>
@@ -6231,7 +6232,7 @@
     <row r="198" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55525368417750753</v>
+        <v>0.61516113299233655</v>
       </c>
       <c r="B198" s="2">
         <v>108</v>
@@ -6252,7 +6253,7 @@
     <row r="199" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69801827093489854</v>
+        <v>0.33328332837410257</v>
       </c>
       <c r="B199" s="2">
         <v>290</v>
@@ -6276,7 +6277,7 @@
     <row r="200" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23272483782139852</v>
+        <v>0.2789852058153135</v>
       </c>
       <c r="B200" s="2">
         <v>277</v>
@@ -6297,7 +6298,7 @@
     <row r="201" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.207210944151472E-2</v>
+        <v>0.15659389119304279</v>
       </c>
       <c r="B201" s="2">
         <v>207</v>
@@ -6318,7 +6319,7 @@
     <row r="202" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88786273678849115</v>
+        <v>0.21322316062298174</v>
       </c>
       <c r="B202" s="2">
         <v>266</v>
@@ -6342,7 +6343,7 @@
     <row r="203" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23666728256826952</v>
+        <v>0.29114476034371484</v>
       </c>
       <c r="B203" s="2">
         <v>61</v>
@@ -6363,7 +6364,7 @@
     <row r="204" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19659382208078813</v>
+        <v>0.47738101588209536</v>
       </c>
       <c r="B204" s="2">
         <v>231</v>
@@ -6384,7 +6385,7 @@
     <row r="205" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3974135771062367</v>
+        <v>0.45921890406026722</v>
       </c>
       <c r="B205" s="2">
         <v>186</v>
@@ -6408,7 +6409,7 @@
     <row r="206" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28888888842944116</v>
+        <v>0.63301582530979106</v>
       </c>
       <c r="B206" s="2">
         <v>293</v>
@@ -6429,7 +6430,7 @@
     <row r="207" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15884723766767528</v>
+        <v>0.69569483705507562</v>
       </c>
       <c r="B207" s="2">
         <v>219</v>
@@ -6450,7 +6451,7 @@
     <row r="208" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47772532485772812</v>
+        <v>0.38264026824568143</v>
       </c>
       <c r="B208" s="2">
         <v>226</v>
@@ -6471,7 +6472,7 @@
     <row r="209" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47428345711336173</v>
+        <v>0.37784547735907725</v>
       </c>
       <c r="B209" s="2">
         <v>287</v>
@@ -6495,7 +6496,7 @@
     <row r="210" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70234681888637085</v>
+        <v>0.94647646219587545</v>
       </c>
       <c r="B210" s="2">
         <v>136</v>
@@ -6519,7 +6520,7 @@
     <row r="211" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6382172713247759</v>
+        <v>0.71474142621310821</v>
       </c>
       <c r="B211" s="2">
         <v>173</v>
@@ -6543,7 +6544,7 @@
     <row r="212" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70632328118330567</v>
+        <v>0.88728049764792005</v>
       </c>
       <c r="B212" s="2">
         <v>112</v>
@@ -6567,7 +6568,7 @@
     <row r="213" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3550651652523928E-2</v>
+        <v>0.19728891077038457</v>
       </c>
       <c r="B213" s="2">
         <v>124</v>
@@ -6588,7 +6589,7 @@
     <row r="214" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88773792862894485</v>
+        <v>0.50500818140443571</v>
       </c>
       <c r="B214" s="2">
         <v>218</v>
@@ -6609,7 +6610,7 @@
     <row r="215" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15113576844591803</v>
+        <v>0.7350795693494041</v>
       </c>
       <c r="B215" s="2">
         <v>149</v>
@@ -6630,7 +6631,7 @@
     <row r="216" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97933755144008161</v>
+        <v>9.7393143255135928E-2</v>
       </c>
       <c r="B216" s="2">
         <v>5</v>
@@ -6651,7 +6652,7 @@
     <row r="217" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18007722814424476</v>
+        <v>0.30572659805255675</v>
       </c>
       <c r="B217" s="2">
         <v>161</v>
@@ -6672,7 +6673,7 @@
     <row r="218" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40289021889512755</v>
+        <v>0.71089172063920703</v>
       </c>
       <c r="B218" s="2">
         <v>6</v>
@@ -6693,7 +6694,7 @@
     <row r="219" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77688108072184237</v>
+        <v>0.25366391990353487</v>
       </c>
       <c r="B219" s="2">
         <v>177</v>
@@ -6714,7 +6715,7 @@
     <row r="220" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5398766807961723E-2</v>
+        <v>0.33195261028064038</v>
       </c>
       <c r="B220" s="2">
         <v>45</v>
@@ -6735,7 +6736,7 @@
     <row r="221" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93394921092399674</v>
+        <v>0.26791808881216173</v>
       </c>
       <c r="B221" s="2">
         <v>43</v>
@@ -6756,7 +6757,7 @@
     <row r="222" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30332941719489959</v>
+        <v>0.44033148956111867</v>
       </c>
       <c r="B222" s="2">
         <v>201</v>
@@ -6777,7 +6778,7 @@
     <row r="223" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35956654741815752</v>
+        <v>8.6410945934217498E-2</v>
       </c>
       <c r="B223" s="2">
         <v>192</v>
@@ -6801,7 +6802,7 @@
     <row r="224" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90643223117021399</v>
+        <v>4.7604603889099817E-2</v>
       </c>
       <c r="B224" s="2">
         <v>171</v>
@@ -6822,7 +6823,7 @@
     <row r="225" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57126607251893136</v>
+        <v>0.20244912196761455</v>
       </c>
       <c r="B225" s="2">
         <v>153</v>
@@ -6849,7 +6850,7 @@
     <row r="226" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42402035224217338</v>
+        <v>0.14478729600943985</v>
       </c>
       <c r="B226" s="2">
         <v>292</v>
@@ -6873,7 +6874,7 @@
     <row r="227" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80058177676486353</v>
+        <v>0.77786700094484862</v>
       </c>
       <c r="B227" s="2">
         <v>105</v>
@@ -6894,7 +6895,7 @@
     <row r="228" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49739919479667227</v>
+        <v>0.98584280410390845</v>
       </c>
       <c r="B228" s="2">
         <v>295</v>
@@ -6918,7 +6919,7 @@
     <row r="229" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52568241898712764</v>
+        <v>0.81604694978148207</v>
       </c>
       <c r="B229" s="2">
         <v>222</v>
@@ -6942,7 +6943,7 @@
     <row r="230" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9.6815411670690188E-2</v>
+        <v>0.67941482663538566</v>
       </c>
       <c r="B230" s="2">
         <v>184</v>
@@ -6963,7 +6964,7 @@
     <row r="231" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81880057285752417</v>
+        <v>0.9787421810573177</v>
       </c>
       <c r="B231" s="2">
         <v>206</v>
@@ -6984,7 +6985,7 @@
     <row r="232" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4816642881657986E-2</v>
+        <v>0.29215489253596949</v>
       </c>
       <c r="B232" s="2">
         <v>89</v>
@@ -7005,7 +7006,7 @@
     <row r="233" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34018583190150897</v>
+        <v>0.38213147620541799</v>
       </c>
       <c r="B233" s="2">
         <v>148</v>
@@ -7029,7 +7030,7 @@
     <row r="234" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36080750385633775</v>
+        <v>0.88644878667226845</v>
       </c>
       <c r="B234" s="2">
         <v>142</v>
@@ -7050,7 +7051,7 @@
     <row r="235" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10403101106374435</v>
+        <v>0.77009126866096245</v>
       </c>
       <c r="B235" s="2">
         <v>296</v>
@@ -7071,7 +7072,7 @@
     <row r="236" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39282917148300345</v>
+        <v>6.2629182513864734E-2</v>
       </c>
       <c r="B236" s="2">
         <v>70</v>
@@ -7092,7 +7093,7 @@
     <row r="237" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22373750555874816</v>
+        <v>0.28450265521477613</v>
       </c>
       <c r="B237" s="2">
         <v>109</v>
@@ -7113,7 +7114,7 @@
     <row r="238" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89718770884814802</v>
+        <v>0.80841643174728828</v>
       </c>
       <c r="B238" s="2">
         <v>39</v>
@@ -7137,7 +7138,7 @@
     <row r="239" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31658666613128017</v>
+        <v>0.16142053576898252</v>
       </c>
       <c r="B239" s="2">
         <v>7</v>
@@ -7158,7 +7159,7 @@
     <row r="240" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44991265983024253</v>
+        <v>0.68375311312168008</v>
       </c>
       <c r="B240" s="2">
         <v>194</v>
@@ -7182,7 +7183,7 @@
     <row r="241" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.1353934095323637E-2</v>
+        <v>0.3974153933010931</v>
       </c>
       <c r="B241" s="2">
         <v>36</v>
@@ -7206,7 +7207,7 @@
     <row r="242" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22807623433456703</v>
+        <v>0.66330811308547222</v>
       </c>
       <c r="B242" s="2">
         <v>16</v>
@@ -7227,7 +7228,7 @@
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75236757540423338</v>
+        <v>0.9500104304479664</v>
       </c>
       <c r="B243" s="2">
         <v>29</v>
@@ -7248,7 +7249,7 @@
     <row r="244" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97067888608033237</v>
+        <v>0.41718763765735689</v>
       </c>
       <c r="B244" s="2">
         <v>195</v>
@@ -7272,7 +7273,7 @@
     <row r="245" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8457012615623668</v>
+        <v>0.9506515899261021</v>
       </c>
       <c r="B245" s="2">
         <v>165</v>
@@ -7293,7 +7294,7 @@
     <row r="246" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17306732490116794</v>
+        <v>0.39941845245158569</v>
       </c>
       <c r="B246" s="2">
         <v>170</v>
@@ -7317,7 +7318,7 @@
     <row r="247" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96317034713716621</v>
+        <v>1.8556145885691766E-2</v>
       </c>
       <c r="B247" s="2">
         <v>175</v>
@@ -7338,7 +7339,7 @@
     <row r="248" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.8924066851812174E-2</v>
+        <v>0.72580540414445083</v>
       </c>
       <c r="B248" s="2">
         <v>64</v>
@@ -7362,7 +7363,7 @@
     <row r="249" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6011443526136111</v>
+        <v>0.35448634117676681</v>
       </c>
       <c r="B249" s="2">
         <v>86</v>
@@ -7383,7 +7384,7 @@
     <row r="250" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34846345131244205</v>
+        <v>0.36331673425484645</v>
       </c>
       <c r="B250" s="2">
         <v>225</v>
@@ -7404,7 +7405,7 @@
     <row r="251" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96177912279809274</v>
+        <v>0.28476038383741986</v>
       </c>
       <c r="B251" s="2">
         <v>55</v>
@@ -7425,7 +7426,7 @@
     <row r="252" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33561366437433426</v>
+        <v>0.59865030003737585</v>
       </c>
       <c r="B252" s="2">
         <v>209</v>
@@ -7449,7 +7450,7 @@
     <row r="253" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75898171294611882</v>
+        <v>0.48018990047589838</v>
       </c>
       <c r="B253" s="2">
         <v>9</v>
@@ -7473,7 +7474,7 @@
     <row r="254" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49435020324066603</v>
+        <v>0.71702459633026194</v>
       </c>
       <c r="B254" s="2">
         <v>150</v>
@@ -7497,7 +7498,7 @@
     <row r="255" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93142086615721276</v>
+        <v>0.78178510372520649</v>
       </c>
       <c r="B255" s="2">
         <v>278</v>
@@ -7518,7 +7519,7 @@
     <row r="256" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59483296580682909</v>
+        <v>0.12734204046556996</v>
       </c>
       <c r="B256" s="2">
         <v>247</v>
@@ -7539,7 +7540,7 @@
     <row r="257" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.091747014157554E-2</v>
+        <v>0.86096414704835267</v>
       </c>
       <c r="B257" s="2">
         <v>73</v>
@@ -7563,7 +7564,7 @@
     <row r="258" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <f t="shared" ref="A258:A299" ca="1" si="4">RAND()</f>
-        <v>0.28418245047228219</v>
+        <v>0.76875293551362112</v>
       </c>
       <c r="B258" s="2">
         <v>31</v>
@@ -7584,7 +7585,7 @@
     <row r="259" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5580186476273844</v>
+        <v>0.40638923986811015</v>
       </c>
       <c r="B259" s="2">
         <v>119</v>
@@ -7605,7 +7606,7 @@
     <row r="260" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15242416790523794</v>
+        <v>3.1142923521533139E-2</v>
       </c>
       <c r="B260" s="2">
         <v>121</v>
@@ -7626,7 +7627,7 @@
     <row r="261" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8.1349043919463071E-3</v>
+        <v>0.90274457388140339</v>
       </c>
       <c r="B261" s="2">
         <v>72</v>
@@ -7647,7 +7648,7 @@
     <row r="262" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52928811528772679</v>
+        <v>0.96222991715450956</v>
       </c>
       <c r="B262" s="2">
         <v>262</v>
@@ -7668,7 +7669,7 @@
     <row r="263" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10863724433975075</v>
+        <v>0.79654472364960749</v>
       </c>
       <c r="B263" s="2">
         <v>68</v>
@@ -7689,7 +7690,7 @@
     <row r="264" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56598861556923408</v>
+        <v>0.19109518975749895</v>
       </c>
       <c r="B264" s="2">
         <v>281</v>
@@ -7710,7 +7711,7 @@
     <row r="265" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.29721051955268663</v>
+        <v>0.98491918070182183</v>
       </c>
       <c r="B265" s="2">
         <v>275</v>
@@ -7737,7 +7738,7 @@
     <row r="266" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.58028739818566644</v>
+        <v>0.64006381222933129</v>
       </c>
       <c r="B266" s="2">
         <v>249</v>
@@ -7758,7 +7759,7 @@
     <row r="267" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64428954809705863</v>
+        <v>0.72923473108396142</v>
       </c>
       <c r="B267" s="2">
         <v>97</v>
@@ -7782,7 +7783,7 @@
     <row r="268" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32519849251113575</v>
+        <v>0.79990297927201492</v>
       </c>
       <c r="B268" s="2">
         <v>152</v>
@@ -7803,7 +7804,7 @@
     <row r="269" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55539525305346016</v>
+        <v>0.25827461315400646</v>
       </c>
       <c r="B269" s="2">
         <v>279</v>
@@ -7824,7 +7825,7 @@
     <row r="270" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.8763053780665998</v>
+        <v>0.44549383421005806</v>
       </c>
       <c r="B270" s="2">
         <v>13</v>
@@ -7845,7 +7846,7 @@
     <row r="271" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9586611968121681</v>
+        <v>0.44860876897206658</v>
       </c>
       <c r="B271" s="2">
         <v>128</v>
@@ -7869,7 +7870,7 @@
     <row r="272" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18830219334055653</v>
+        <v>0.17880239393514696</v>
       </c>
       <c r="B272" s="2">
         <v>102</v>
@@ -7890,7 +7891,7 @@
     <row r="273" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.87136909628859471</v>
+        <v>0.21819425676430637</v>
       </c>
       <c r="B273" s="2">
         <v>294</v>
@@ -7914,7 +7915,7 @@
     <row r="274" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34057125239482755</v>
+        <v>0.48952868930735127</v>
       </c>
       <c r="B274" s="2">
         <v>254</v>
@@ -7935,7 +7936,7 @@
     <row r="275" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8.3915419349599008E-2</v>
+        <v>0.34611709459260209</v>
       </c>
       <c r="B275" s="2">
         <v>140</v>
@@ -7956,7 +7957,7 @@
     <row r="276" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.78458024301208484</v>
+        <v>0.56646329688663166</v>
       </c>
       <c r="B276" s="2">
         <v>236</v>
@@ -7980,7 +7981,7 @@
     <row r="277" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63046323290321049</v>
+        <v>0.3591248597704767</v>
       </c>
       <c r="B277" s="2">
         <v>101</v>
@@ -8004,7 +8005,7 @@
     <row r="278" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89432774001283111</v>
+        <v>0.9849969218186474</v>
       </c>
       <c r="B278" s="2">
         <v>83</v>
@@ -8025,7 +8026,7 @@
     <row r="279" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26926906786418126</v>
+        <v>0.12030471718086344</v>
       </c>
       <c r="B279" s="2">
         <v>1</v>
@@ -8046,7 +8047,7 @@
     <row r="280" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.58996599338786715</v>
+        <v>0.28471924543731464</v>
       </c>
       <c r="B280" s="2">
         <v>298</v>
@@ -8067,7 +8068,7 @@
     <row r="281" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60415698226601855</v>
+        <v>0.48794405443558653</v>
       </c>
       <c r="B281" s="2">
         <v>167</v>
@@ -8091,7 +8092,7 @@
     <row r="282" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.7930528728590357</v>
+        <v>0.63733467677350397</v>
       </c>
       <c r="B282" s="2">
         <v>100</v>
@@ -8112,7 +8113,7 @@
     <row r="283" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.91610607957750578</v>
+        <v>0.74644991055508125</v>
       </c>
       <c r="B283" s="2">
         <v>14</v>
@@ -8136,7 +8137,7 @@
     <row r="284" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14656394267612594</v>
+        <v>0.47869818172592871</v>
       </c>
       <c r="B284" s="2">
         <v>127</v>
@@ -8160,7 +8161,7 @@
     <row r="285" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.92336584713675018</v>
+        <v>0.38036781000340503</v>
       </c>
       <c r="B285" s="2">
         <v>217</v>
@@ -8181,7 +8182,7 @@
     <row r="286" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53729811154417262</v>
+        <v>0.81162198018865184</v>
       </c>
       <c r="B286" s="2">
         <v>166</v>
@@ -8202,7 +8203,7 @@
     <row r="287" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9858911092159236</v>
+        <v>0.78852176654871398</v>
       </c>
       <c r="B287" s="2">
         <v>15</v>
@@ -8226,7 +8227,7 @@
     <row r="288" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.4727437271679493E-2</v>
+        <v>9.5717970903166139E-2</v>
       </c>
       <c r="B288" s="2">
         <v>180</v>
@@ -8247,7 +8248,7 @@
     <row r="289" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.91949253782893992</v>
+        <v>0.12249667521823504</v>
       </c>
       <c r="B289" s="2">
         <v>282</v>
@@ -8268,7 +8269,7 @@
     <row r="290" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77781119881895766</v>
+        <v>0.75573939633941478</v>
       </c>
       <c r="B290" s="2">
         <v>235</v>
@@ -8292,7 +8293,7 @@
     <row r="291" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.0707447999855946E-2</v>
+        <v>0.18615788318295079</v>
       </c>
       <c r="B291" s="2">
         <v>20</v>
@@ -8316,7 +8317,7 @@
     <row r="292" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70637985386210533</v>
+        <v>0.19617845783011689</v>
       </c>
       <c r="B292" s="2">
         <v>17</v>
@@ -8337,7 +8338,7 @@
     <row r="293" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.57872418693745675</v>
+        <v>0.70612994224942816</v>
       </c>
       <c r="B293" s="2">
         <v>71</v>
@@ -8358,7 +8359,7 @@
     <row r="294" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.74426432748217375</v>
+        <v>0.84240646817586085</v>
       </c>
       <c r="B294" s="2">
         <v>164</v>
@@ -8379,7 +8380,7 @@
     <row r="295" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.87960391119149595</v>
+        <v>0.59034569675389748</v>
       </c>
       <c r="B295" s="2">
         <v>92</v>
@@ -8400,7 +8401,7 @@
     <row r="296" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1859691724100957</v>
+        <v>0.40253248144849718</v>
       </c>
       <c r="B296" s="2">
         <v>91</v>
@@ -8421,7 +8422,7 @@
     <row r="297" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.97025447849696445</v>
+        <v>1.0438550476200681E-2</v>
       </c>
       <c r="B297" s="2">
         <v>8</v>
@@ -8445,7 +8446,7 @@
     <row r="298" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.74540990243348637</v>
+        <v>0.48244137755557037</v>
       </c>
       <c r="B298" s="2">
         <v>85</v>
@@ -8466,7 +8467,7 @@
     <row r="299" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.91448722603503585</v>
+        <v>0.21074991156502698</v>
       </c>
       <c r="B299" s="2">
         <v>120</v>
@@ -8592,7 +8593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+    <sheetView topLeftCell="A289" workbookViewId="0">
       <selection activeCell="A300" sqref="A300:XFD316"/>
     </sheetView>
   </sheetViews>
